--- a/data_year/zb/运输和邮电/运输线路长度.xlsx
+++ b/data_year/zb/运输和邮电/运输线路长度.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,904 +498,550 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.0088</v>
+        <v>6.443</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2672</v>
+        <v>30.8743</v>
       </c>
       <c r="D2" t="n">
-        <v>167.9848</v>
+        <v>400.8229</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9325</v>
+        <v>12.424178</v>
       </c>
       <c r="F2" t="n">
-        <v>508405</v>
+        <v>1070167</v>
       </c>
       <c r="G2" t="n">
-        <v>1502880</v>
+        <v>2765147</v>
       </c>
       <c r="H2" t="n">
-        <v>18.6685</v>
+        <v>70.352</v>
       </c>
       <c r="I2" t="n">
-        <v>131.5931</v>
+        <v>330.4709</v>
       </c>
       <c r="J2" t="n">
-        <v>2.465</v>
+        <v>7.84974869</v>
       </c>
       <c r="K2" t="n">
-        <v>1.486</v>
+        <v>3.2717228</v>
       </c>
       <c r="L2" t="n">
-        <v>6.87</v>
+        <v>9.117847899999999</v>
       </c>
       <c r="M2" t="n">
-        <v>1.63</v>
+        <v>7.4113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.5214</v>
+        <v>6.8119</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2102</v>
+        <v>32.0536</v>
       </c>
       <c r="D3" t="n">
-        <v>169.8</v>
+        <v>410.6387</v>
       </c>
       <c r="E3" t="n">
-        <v>12.15</v>
+        <v>12.4612</v>
       </c>
       <c r="F3" t="n">
-        <v>516859</v>
+        <v>1494387</v>
       </c>
       <c r="G3" t="n">
-        <v>1553596</v>
+        <v>3490571</v>
       </c>
       <c r="H3" t="n">
-        <v>36.1968</v>
+        <v>65.2796</v>
       </c>
       <c r="I3" t="n">
-        <v>133.6044</v>
+        <v>345.359</v>
       </c>
       <c r="J3" t="n">
-        <v>2.7555</v>
+        <v>8.3302</v>
       </c>
       <c r="K3" t="n">
-        <v>1.68766</v>
+        <v>3.4330439</v>
       </c>
       <c r="L3" t="n">
-        <v>7.0058</v>
+        <v>9.3249643</v>
       </c>
       <c r="M3" t="n">
-        <v>1.94</v>
+        <v>8.4946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.7468</v>
+        <v>7.4271</v>
       </c>
       <c r="C4" t="n">
-        <v>19.7143</v>
+        <v>33.1455</v>
       </c>
       <c r="D4" t="n">
-        <v>176.52</v>
+        <v>423.7508</v>
       </c>
       <c r="E4" t="n">
-        <v>12.16</v>
+        <v>12.499463</v>
       </c>
       <c r="F4" t="n">
-        <v>574500</v>
+        <v>1284712</v>
       </c>
       <c r="G4" t="n">
-        <v>1637700</v>
+        <v>3280114</v>
       </c>
       <c r="H4" t="n">
-        <v>38.2296</v>
+        <v>62.7908</v>
       </c>
       <c r="I4" t="n">
-        <v>138.2926</v>
+        <v>360.96</v>
       </c>
       <c r="J4" t="n">
-        <v>2.98</v>
+        <v>9.1604390655</v>
       </c>
       <c r="K4" t="n">
-        <v>1.74</v>
+        <v>3.5486468</v>
       </c>
       <c r="L4" t="n">
-        <v>7.19</v>
+        <v>9.7625484</v>
       </c>
       <c r="M4" t="n">
-        <v>2.51</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.9903</v>
+        <v>7.9491</v>
       </c>
       <c r="C5" t="n">
-        <v>21.1929</v>
+        <v>34.0466</v>
       </c>
       <c r="D5" t="n">
-        <v>180.98</v>
+        <v>435.6218435</v>
       </c>
       <c r="E5" t="n">
-        <v>12.4</v>
+        <v>12.585297</v>
       </c>
       <c r="F5" t="n">
-        <v>715300</v>
+        <v>1503150</v>
       </c>
       <c r="G5" t="n">
-        <v>1749500</v>
+        <v>4106000</v>
       </c>
       <c r="H5" t="n">
-        <v>37.109</v>
+        <v>60.0652</v>
       </c>
       <c r="I5" t="n">
-        <v>143.8738</v>
+        <v>375.5567</v>
       </c>
       <c r="J5" t="n">
-        <v>3.26</v>
+        <v>9.8464387</v>
       </c>
       <c r="K5" t="n">
-        <v>1.81</v>
+        <v>3.5977248</v>
       </c>
       <c r="L5" t="n">
-        <v>7.3</v>
+        <v>10.3144637</v>
       </c>
       <c r="M5" t="n">
-        <v>2.97</v>
+        <v>10.4438003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.3522</v>
+        <v>8.536199999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>23.1715</v>
+        <v>34.8351</v>
       </c>
       <c r="D6" t="n">
-        <v>187.07</v>
+        <v>446.3913</v>
       </c>
       <c r="E6" t="n">
-        <v>12.33</v>
+        <v>12.628002</v>
       </c>
       <c r="F6" t="n">
-        <v>894200</v>
+        <v>1767210</v>
       </c>
       <c r="G6" t="n">
-        <v>2049400</v>
+        <v>4637214</v>
       </c>
       <c r="H6" t="n">
-        <v>35.4835</v>
+        <v>56.3079</v>
       </c>
       <c r="I6" t="n">
-        <v>151.5826</v>
+        <v>390.0834</v>
       </c>
       <c r="J6" t="n">
-        <v>3.82</v>
+        <v>10.5688216</v>
       </c>
       <c r="K6" t="n">
-        <v>1.86</v>
+        <v>3.6851383</v>
       </c>
       <c r="L6" t="n">
-        <v>7.44</v>
+        <v>11.1821116</v>
       </c>
       <c r="M6" t="n">
-        <v>3.43</v>
+        <v>11.1936</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.8381</v>
+        <v>9.096399999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>24.6442</v>
+        <v>36.041</v>
       </c>
       <c r="D7" t="n">
-        <v>334.52</v>
+        <v>457.7295832</v>
       </c>
       <c r="E7" t="n">
-        <v>12.33</v>
+        <v>12.700109</v>
       </c>
       <c r="F7" t="n">
-        <v>855900</v>
+        <v>2394434</v>
       </c>
       <c r="G7" t="n">
-        <v>1998500</v>
+        <v>5317230</v>
       </c>
       <c r="H7" t="n">
-        <v>33.8752</v>
+        <v>53.1005</v>
       </c>
       <c r="I7" t="n">
-        <v>159.1791</v>
+        <v>404.629</v>
       </c>
       <c r="J7" t="n">
-        <v>4.4</v>
+        <v>10.8706</v>
       </c>
       <c r="K7" t="n">
-        <v>1.94</v>
+        <v>7.47466</v>
       </c>
       <c r="L7" t="n">
-        <v>7.54376</v>
+        <v>12.09704</v>
       </c>
       <c r="M7" t="n">
-        <v>4.1</v>
+        <v>12.3522841</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.5289</v>
+        <v>9.9152</v>
       </c>
       <c r="C8" t="n">
-        <v>26.2678</v>
+        <v>37.1102</v>
       </c>
       <c r="D8" t="n">
-        <v>345.6999</v>
+        <v>469.6263</v>
       </c>
       <c r="E8" t="n">
-        <v>12.338827</v>
+        <v>12.709864</v>
       </c>
       <c r="F8" t="n">
-        <v>966168</v>
+        <v>2828015</v>
       </c>
       <c r="G8" t="n">
-        <v>2113505</v>
+        <v>6348144</v>
       </c>
       <c r="H8" t="n">
-        <v>117.4128</v>
+        <v>46.9719</v>
       </c>
       <c r="I8" t="n">
-        <v>228.2872</v>
+        <v>422.6543</v>
       </c>
       <c r="J8" t="n">
-        <v>4.81280839</v>
+        <v>11.3367</v>
       </c>
       <c r="K8" t="n">
-        <v>2.34354</v>
+        <v>8.031000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>7.70838</v>
+        <v>12.39919</v>
       </c>
       <c r="M8" t="n">
-        <v>4.5339</v>
+        <v>13.0973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.0093</v>
+        <v>10.5223999</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6413</v>
+        <v>38.0480538</v>
       </c>
       <c r="D9" t="n">
-        <v>358.3715</v>
+        <v>477.3468833</v>
       </c>
       <c r="E9" t="n">
-        <v>12.349518</v>
+        <v>12.701856</v>
       </c>
       <c r="F9" t="n">
-        <v>1047418</v>
+        <v>3245859</v>
       </c>
       <c r="G9" t="n">
-        <v>2342961</v>
+        <v>7483033</v>
       </c>
       <c r="H9" t="n">
-        <v>104.8332</v>
+        <v>43.4909116</v>
       </c>
       <c r="I9" t="n">
-        <v>253.5383</v>
+        <v>433.8559717</v>
       </c>
       <c r="J9" t="n">
-        <v>5.44603199</v>
+        <v>11.92881305</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4046625</v>
+        <v>8.655340000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>7.7965903</v>
+        <v>12.69699</v>
       </c>
       <c r="M9" t="n">
-        <v>5.3913</v>
+        <v>13.6448548</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.4216</v>
+        <v>11.1703257</v>
       </c>
       <c r="C10" t="n">
-        <v>28.5226</v>
+        <v>39.3471265</v>
       </c>
       <c r="D10" t="n">
-        <v>373.0164</v>
+        <v>484.6531684</v>
       </c>
       <c r="E10" t="n">
-        <v>12.276349</v>
+        <v>12.712641</v>
       </c>
       <c r="F10" t="n">
-        <v>1120166</v>
+        <v>3598911</v>
       </c>
       <c r="G10" t="n">
-        <v>2461840</v>
+        <v>8379833</v>
       </c>
       <c r="H10" t="n">
-        <v>95.16419999999999</v>
+        <v>38.066744</v>
       </c>
       <c r="I10" t="n">
-        <v>277.8521</v>
+        <v>446.5864244</v>
       </c>
       <c r="J10" t="n">
-        <v>5.83498409</v>
+        <v>12.22992395</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5007315</v>
+        <v>9.218500000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>7.9687282</v>
+        <v>13.1651296</v>
       </c>
       <c r="M10" t="n">
-        <v>6.0302</v>
+        <v>14.2593156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.9462</v>
+        <v>11.7060808</v>
       </c>
       <c r="C11" t="n">
-        <v>30.0686</v>
+        <v>40.5345097</v>
       </c>
       <c r="D11" t="n">
-        <v>386.0823</v>
+        <v>501.2495792</v>
       </c>
       <c r="E11" t="n">
-        <v>12.3683</v>
+        <v>12.729836</v>
       </c>
       <c r="F11" t="n">
-        <v>919899</v>
+        <v>4014686</v>
       </c>
       <c r="G11" t="n">
-        <v>2345085</v>
+        <v>9482204</v>
       </c>
       <c r="H11" t="n">
-        <v>80.4558</v>
+        <v>31.3771194</v>
       </c>
       <c r="I11" t="n">
-        <v>305.6265</v>
+        <v>469.8724598</v>
       </c>
       <c r="J11" t="n">
-        <v>6.90607729</v>
+        <v>12.6643</v>
       </c>
       <c r="K11" t="n">
-        <v>3.02427</v>
+        <v>10.04465</v>
       </c>
       <c r="L11" t="n">
-        <v>8.5517886</v>
+        <v>13.9926388</v>
       </c>
       <c r="M11" t="n">
-        <v>6.5055</v>
+        <v>14.9571248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.443</v>
+        <v>12.3101162</v>
       </c>
       <c r="C12" t="n">
-        <v>30.8743</v>
+        <v>41.8300138</v>
       </c>
       <c r="D12" t="n">
-        <v>400.8229</v>
+        <v>519.8120273</v>
       </c>
       <c r="E12" t="n">
-        <v>12.424178</v>
+        <v>12.768555</v>
       </c>
       <c r="F12" t="n">
-        <v>1070167</v>
+        <v>3828748</v>
       </c>
       <c r="G12" t="n">
-        <v>2765147</v>
+        <v>9426313</v>
       </c>
       <c r="H12" t="n">
-        <v>70.352</v>
+        <v>25.3631528</v>
       </c>
       <c r="I12" t="n">
-        <v>330.4709</v>
+        <v>494.4488745</v>
       </c>
       <c r="J12" t="n">
-        <v>7.84974869</v>
+        <v>12.87489763</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2717228</v>
+        <v>10.62835</v>
       </c>
       <c r="L12" t="n">
-        <v>9.117847899999999</v>
+        <v>14.6330439</v>
       </c>
       <c r="M12" t="n">
-        <v>7.4113</v>
+        <v>16.0980198</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.8119</v>
+        <v>12.8161977</v>
       </c>
       <c r="C13" t="n">
-        <v>32.0536</v>
+        <v>42.6417086</v>
       </c>
       <c r="D13" t="n">
-        <v>410.6387</v>
+        <v>528.0708078</v>
       </c>
       <c r="E13" t="n">
-        <v>12.4612</v>
+        <v>12.764232</v>
       </c>
       <c r="F13" t="n">
-        <v>1494387</v>
+        <v>1319643</v>
       </c>
       <c r="G13" t="n">
-        <v>3490571</v>
+        <v>6897750</v>
       </c>
       <c r="H13" t="n">
-        <v>65.2796</v>
+        <v>21.8809244</v>
       </c>
       <c r="I13" t="n">
-        <v>345.359</v>
+        <v>506.1898834</v>
       </c>
       <c r="J13" t="n">
-        <v>8.3302</v>
+        <v>13.1192978</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4330439</v>
+        <v>11.076168</v>
       </c>
       <c r="L13" t="n">
-        <v>9.3249643</v>
+        <v>15.0739348</v>
       </c>
       <c r="M13" t="n">
-        <v>8.4946</v>
+        <v>16.907062</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>7.4271</v>
-      </c>
-      <c r="C14" t="n">
-        <v>33.1455</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>423.7508</v>
+        <v>535.48368</v>
       </c>
       <c r="E14" t="n">
-        <v>12.499463</v>
+        <v>12.796847</v>
       </c>
       <c r="F14" t="n">
-        <v>1284712</v>
+        <v>1537400</v>
       </c>
       <c r="G14" t="n">
-        <v>3280114</v>
-      </c>
-      <c r="H14" t="n">
-        <v>62.7908</v>
-      </c>
-      <c r="I14" t="n">
-        <v>360.96</v>
-      </c>
+        <v>6998900</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>9.1604390655</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.5486468</v>
-      </c>
+        <v>13.6425527</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>9.7625484</v>
+        <v>15.4907</v>
       </c>
       <c r="M14" t="n">
-        <v>9.619999999999999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7.9491</v>
-      </c>
-      <c r="C15" t="n">
-        <v>34.0466</v>
-      </c>
-      <c r="D15" t="n">
-        <v>435.6218435</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.585297</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1503150</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4106000</v>
-      </c>
-      <c r="H15" t="n">
-        <v>60.0652</v>
-      </c>
-      <c r="I15" t="n">
-        <v>375.5567</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9.8464387</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.5977248</v>
-      </c>
-      <c r="L15" t="n">
-        <v>10.3144637</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10.4438003</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8.536199999999999</v>
-      </c>
-      <c r="C16" t="n">
-        <v>34.8351</v>
-      </c>
-      <c r="D16" t="n">
-        <v>446.3913</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.628002</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1767210</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4637214</v>
-      </c>
-      <c r="H16" t="n">
-        <v>56.3079</v>
-      </c>
-      <c r="I16" t="n">
-        <v>390.0834</v>
-      </c>
-      <c r="J16" t="n">
-        <v>10.5688216</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.6851383</v>
-      </c>
-      <c r="L16" t="n">
-        <v>11.1821116</v>
-      </c>
-      <c r="M16" t="n">
-        <v>11.1936</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9.096399999999999</v>
-      </c>
-      <c r="C17" t="n">
-        <v>36.041</v>
-      </c>
-      <c r="D17" t="n">
-        <v>457.7296</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12.7001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2394434</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5317230</v>
-      </c>
-      <c r="H17" t="n">
-        <v>53.1005</v>
-      </c>
-      <c r="I17" t="n">
-        <v>404.629</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10.8706</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.47466</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12.09704</v>
-      </c>
-      <c r="M17" t="n">
-        <v>12.3523</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9.9152</v>
-      </c>
-      <c r="C18" t="n">
-        <v>37.1102</v>
-      </c>
-      <c r="D18" t="n">
-        <v>469.6263</v>
-      </c>
-      <c r="E18" t="n">
-        <v>12.709864</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2828015</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6348144</v>
-      </c>
-      <c r="H18" t="n">
-        <v>46.9719</v>
-      </c>
-      <c r="I18" t="n">
-        <v>422.6543</v>
-      </c>
-      <c r="J18" t="n">
-        <v>11.3367</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8.031000000000001</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12.39919</v>
-      </c>
-      <c r="M18" t="n">
-        <v>13.0973</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10.5223999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>38.0480538</v>
-      </c>
-      <c r="D19" t="n">
-        <v>477.3468833</v>
-      </c>
-      <c r="E19" t="n">
-        <v>12.701856</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3245859</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7483033</v>
-      </c>
-      <c r="H19" t="n">
-        <v>43.4909116</v>
-      </c>
-      <c r="I19" t="n">
-        <v>433.8559717</v>
-      </c>
-      <c r="J19" t="n">
-        <v>11.92881305</v>
-      </c>
-      <c r="K19" t="n">
-        <v>8.655340000000001</v>
-      </c>
-      <c r="L19" t="n">
-        <v>12.69699</v>
-      </c>
-      <c r="M19" t="n">
-        <v>13.6448548</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>11.1703257</v>
-      </c>
-      <c r="C20" t="n">
-        <v>39.3471265</v>
-      </c>
-      <c r="D20" t="n">
-        <v>484.6531684</v>
-      </c>
-      <c r="E20" t="n">
-        <v>12.712641</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3598911</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8379833</v>
-      </c>
-      <c r="H20" t="n">
-        <v>38.066744</v>
-      </c>
-      <c r="I20" t="n">
-        <v>446.5864244</v>
-      </c>
-      <c r="J20" t="n">
-        <v>12.22992395</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9.218500000000001</v>
-      </c>
-      <c r="L20" t="n">
-        <v>13.1651296</v>
-      </c>
-      <c r="M20" t="n">
-        <v>14.2593156</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>11.7060808</v>
-      </c>
-      <c r="C21" t="n">
-        <v>40.5345097</v>
-      </c>
-      <c r="D21" t="n">
-        <v>501.2495792</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12.729836</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4014686</v>
-      </c>
-      <c r="G21" t="n">
-        <v>9482204</v>
-      </c>
-      <c r="H21" t="n">
-        <v>31.3771194</v>
-      </c>
-      <c r="I21" t="n">
-        <v>469.8724598</v>
-      </c>
-      <c r="J21" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10.04465</v>
-      </c>
-      <c r="L21" t="n">
-        <v>13.9926388</v>
-      </c>
-      <c r="M21" t="n">
-        <v>14.9571248</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>12.3101162</v>
-      </c>
-      <c r="C22" t="n">
-        <v>41.8300138</v>
-      </c>
-      <c r="D22" t="n">
-        <v>519.8120273</v>
-      </c>
-      <c r="E22" t="n">
-        <v>12.768555</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3828748</v>
-      </c>
-      <c r="G22" t="n">
-        <v>9426313</v>
-      </c>
-      <c r="H22" t="n">
-        <v>25.3631528</v>
-      </c>
-      <c r="I22" t="n">
-        <v>494.4488745</v>
-      </c>
-      <c r="J22" t="n">
-        <v>13.4134312</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10.62835</v>
-      </c>
-      <c r="L22" t="n">
-        <v>14.6330439</v>
-      </c>
-      <c r="M22" t="n">
-        <v>16.0980198</v>
+        <v>17.725167</v>
       </c>
     </row>
   </sheetData>
